--- a/listob.xlsx
+++ b/listob.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\kognizastoneur\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19920" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_studentow" sheetId="1" r:id="rId1"/>
@@ -610,24 +615,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -636,14 +641,14 @@
     <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobre" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralne" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -651,13 +656,16 @@
     <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Złe" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -706,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,7 +749,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,7 +961,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1020,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1038,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1074,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1092,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1110,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1128,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1146,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1182,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1200,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1218,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1236,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>

--- a/listob.xlsx
+++ b/listob.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19920" windowHeight="7635"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="14880" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_studentow" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Lp</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Z7</t>
+  </si>
+  <si>
+    <t>Marek Sroczyński</t>
   </si>
 </sst>
 </file>
@@ -958,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1017,9 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1032,7 +1037,9 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1050,7 +1057,9 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1068,7 +1077,9 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1086,7 +1097,9 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1104,7 +1117,9 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1122,7 +1137,9 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1140,7 +1157,9 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1158,7 +1177,9 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1176,7 +1197,9 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1194,7 +1217,9 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1212,7 +1237,9 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1230,7 +1257,9 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1248,11 +1277,18 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:J15">

--- a/listob.xlsx
+++ b/listob.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\kognizastoneur\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14880" windowHeight="7635"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Lp</t>
   </si>
@@ -91,9 +86,6 @@
   </si>
   <si>
     <t>Z7</t>
-  </si>
-  <si>
-    <t>Marek Sroczyński</t>
   </si>
 </sst>
 </file>
@@ -618,24 +610,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -644,14 +636,14 @@
     <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dobre" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutralne" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -659,7 +651,7 @@
     <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Złe" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,8 +1007,12 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
@@ -1035,8 +1031,12 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -1055,8 +1055,12 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
@@ -1075,8 +1079,12 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -1095,8 +1103,12 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -1115,8 +1127,12 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
@@ -1135,8 +1151,12 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
@@ -1155,8 +1175,12 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
@@ -1175,8 +1199,12 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
@@ -1195,8 +1223,12 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
@@ -1215,8 +1247,12 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
@@ -1235,8 +1271,12 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
@@ -1255,8 +1295,12 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
@@ -1275,8 +1319,12 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -1284,11 +1332,6 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:J15">
